--- a/U302 SAT/Project Plans/SAT Gantt Chart.xlsx
+++ b/U302 SAT/Project Plans/SAT Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caulfieldgs-my.sharepoint.com/personal/153527_caulfieldgs_vic_edu_au/Documents/CGS Files/STEM/Software Dev/U302 SAT/Project Plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_2A89001221F45DFA2918D97EC5DD757282186443" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489D2C22-2EA0-9B45-99B1-D15E52EA5E4A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_2A89001221F45DFA2918D97EC5DD757282186443" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E3D3C5-D395-2E4E-B5FC-392933E9C91D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="1" r:id="rId1"/>
@@ -1191,6 +1191,11 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1200,11 +1205,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -8744,9 +8744,9 @@
   </sheetPr>
   <dimension ref="A1:GR236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="57" zoomScaleNormal="82" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="82" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8796,197 +8796,197 @@
       <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="126">
+      <c r="D3" s="124"/>
+      <c r="E3" s="129">
         <v>44655</v>
       </c>
-      <c r="F3" s="127"/>
+      <c r="F3" s="130"/>
     </row>
     <row r="4" spans="1:200" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="129"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="123">
+      <c r="I4" s="126">
         <f>I5</f>
         <v>44655</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="123">
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="126">
         <f>P5</f>
         <v>44662</v>
       </c>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="123">
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="126">
         <f>W5</f>
         <v>44669</v>
       </c>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="123">
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="126">
         <f>AD5</f>
         <v>44676</v>
       </c>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="123">
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="126">
         <f>AK5</f>
         <v>44683</v>
       </c>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="125"/>
-      <c r="AR4" s="123">
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="126">
         <f>AR5</f>
         <v>44690</v>
       </c>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="125"/>
-      <c r="AY4" s="123">
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="126">
         <f>AY5</f>
         <v>44697</v>
       </c>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="124"/>
-      <c r="BD4" s="124"/>
-      <c r="BE4" s="125"/>
-      <c r="BF4" s="123">
+      <c r="AZ4" s="127"/>
+      <c r="BA4" s="127"/>
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="126">
         <f>BF5</f>
         <v>44704</v>
       </c>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="125"/>
-      <c r="BM4" s="123">
+      <c r="BG4" s="127"/>
+      <c r="BH4" s="127"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="128"/>
+      <c r="BM4" s="126">
         <f>BM5</f>
         <v>44711</v>
       </c>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="124"/>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="125"/>
-      <c r="BT4" s="123">
+      <c r="BN4" s="127"/>
+      <c r="BO4" s="127"/>
+      <c r="BP4" s="127"/>
+      <c r="BQ4" s="127"/>
+      <c r="BR4" s="127"/>
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="126">
         <f>BT5</f>
         <v>44718</v>
       </c>
-      <c r="BU4" s="124"/>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="124"/>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="125"/>
-      <c r="CA4" s="123">
+      <c r="BU4" s="127"/>
+      <c r="BV4" s="127"/>
+      <c r="BW4" s="127"/>
+      <c r="BX4" s="127"/>
+      <c r="BY4" s="127"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="126">
         <f>CA5</f>
         <v>44725</v>
       </c>
-      <c r="CB4" s="124"/>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="124"/>
-      <c r="CE4" s="124"/>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="125"/>
-      <c r="CH4" s="123">
+      <c r="CB4" s="127"/>
+      <c r="CC4" s="127"/>
+      <c r="CD4" s="127"/>
+      <c r="CE4" s="127"/>
+      <c r="CF4" s="127"/>
+      <c r="CG4" s="128"/>
+      <c r="CH4" s="126">
         <f>CH5</f>
         <v>44732</v>
       </c>
-      <c r="CI4" s="124"/>
-      <c r="CJ4" s="124"/>
-      <c r="CK4" s="124"/>
-      <c r="CL4" s="124"/>
-      <c r="CM4" s="124"/>
-      <c r="CN4" s="125"/>
-      <c r="CO4" s="123">
+      <c r="CI4" s="127"/>
+      <c r="CJ4" s="127"/>
+      <c r="CK4" s="127"/>
+      <c r="CL4" s="127"/>
+      <c r="CM4" s="127"/>
+      <c r="CN4" s="128"/>
+      <c r="CO4" s="126">
         <f>CO5</f>
         <v>44739</v>
       </c>
-      <c r="CP4" s="124"/>
-      <c r="CQ4" s="124"/>
-      <c r="CR4" s="124"/>
-      <c r="CS4" s="124"/>
-      <c r="CT4" s="124"/>
-      <c r="CU4" s="125"/>
-      <c r="CV4" s="123">
+      <c r="CP4" s="127"/>
+      <c r="CQ4" s="127"/>
+      <c r="CR4" s="127"/>
+      <c r="CS4" s="127"/>
+      <c r="CT4" s="127"/>
+      <c r="CU4" s="128"/>
+      <c r="CV4" s="126">
         <f>CV5</f>
         <v>44746</v>
       </c>
-      <c r="CW4" s="124"/>
-      <c r="CX4" s="124"/>
-      <c r="CY4" s="124"/>
-      <c r="CZ4" s="124"/>
-      <c r="DA4" s="124"/>
-      <c r="DB4" s="125"/>
-      <c r="DC4" s="123">
+      <c r="CW4" s="127"/>
+      <c r="CX4" s="127"/>
+      <c r="CY4" s="127"/>
+      <c r="CZ4" s="127"/>
+      <c r="DA4" s="127"/>
+      <c r="DB4" s="128"/>
+      <c r="DC4" s="126">
         <f>DC5</f>
         <v>44753</v>
       </c>
-      <c r="DD4" s="124"/>
-      <c r="DE4" s="124"/>
-      <c r="DF4" s="124"/>
-      <c r="DG4" s="124"/>
-      <c r="DH4" s="124"/>
-      <c r="DI4" s="125"/>
-      <c r="DJ4" s="123">
+      <c r="DD4" s="127"/>
+      <c r="DE4" s="127"/>
+      <c r="DF4" s="127"/>
+      <c r="DG4" s="127"/>
+      <c r="DH4" s="127"/>
+      <c r="DI4" s="128"/>
+      <c r="DJ4" s="126">
         <f>DJ5</f>
         <v>44760</v>
       </c>
-      <c r="DK4" s="124"/>
-      <c r="DL4" s="124"/>
-      <c r="DM4" s="124"/>
-      <c r="DN4" s="124"/>
-      <c r="DO4" s="124"/>
-      <c r="DP4" s="125"/>
+      <c r="DK4" s="127"/>
+      <c r="DL4" s="127"/>
+      <c r="DM4" s="127"/>
+      <c r="DN4" s="127"/>
+      <c r="DO4" s="127"/>
+      <c r="DP4" s="128"/>
     </row>
     <row r="5" spans="1:200" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
       <c r="I5" s="80">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44655</v>
@@ -9844,7 +9844,7 @@
         <v>F</v>
       </c>
       <c r="DA6" s="8" t="str">
-        <f t="shared" ref="DA6:EF6" si="7">LEFT(TEXT(DA5,"ddd"),1)</f>
+        <f t="shared" ref="DA6:DP6" si="7">LEFT(TEXT(DA5,"ddd"),1)</f>
         <v>S</v>
       </c>
       <c r="DB6" s="8" t="str">
@@ -12689,7 +12689,9 @@
       <c r="C21" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="89">
+        <v>1</v>
+      </c>
       <c r="E21" s="90">
         <v>44683</v>
       </c>
@@ -13555,7 +13557,9 @@
       <c r="C25" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="89"/>
+      <c r="D25" s="89">
+        <v>1</v>
+      </c>
       <c r="E25" s="90">
         <v>44690</v>
       </c>
@@ -13770,7 +13774,9 @@
       <c r="C26" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="89">
+        <v>1</v>
+      </c>
       <c r="E26" s="90">
         <v>44692</v>
       </c>
@@ -14200,7 +14206,9 @@
       <c r="C28" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="89"/>
+      <c r="D28" s="89">
+        <v>1</v>
+      </c>
       <c r="E28" s="90">
         <v>44695</v>
       </c>
@@ -14415,7 +14423,9 @@
       <c r="C29" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="89"/>
+      <c r="D29" s="89">
+        <v>1</v>
+      </c>
       <c r="E29" s="90">
         <v>44698</v>
       </c>
@@ -35828,18 +35838,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="DJ4:DP4"/>
@@ -35848,6 +35846,18 @@
     <mergeCell ref="CA4:CG4"/>
     <mergeCell ref="CH4:CN4"/>
     <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D177">
     <cfRule type="dataBar" priority="443">

--- a/U302 SAT/Project Plans/SAT Gantt Chart.xlsx
+++ b/U302 SAT/Project Plans/SAT Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caulfieldgs-my.sharepoint.com/personal/153527_caulfieldgs_vic_edu_au/Documents/CGS Files/STEM/Software Dev/U302 SAT/Project Plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_2A89001221F45DFA2918D97EC5DD757282186443" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E3D3C5-D395-2E4E-B5FC-392933E9C91D}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_2A89001221F45DFA2918D97EC5DD757282186443" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195EAB0D-9A4C-0847-899A-84FFC5880049}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,11 +1191,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1205,6 +1200,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -8745,8 +8745,8 @@
   <dimension ref="A1:GR236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="82" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC29" sqref="AC29"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8796,197 +8796,197 @@
       <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="129">
+      <c r="D3" s="129"/>
+      <c r="E3" s="126">
         <v>44655</v>
       </c>
-      <c r="F3" s="130"/>
+      <c r="F3" s="127"/>
     </row>
     <row r="4" spans="1:200" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="124"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="126">
+      <c r="I4" s="123">
         <f>I5</f>
         <v>44655</v>
       </c>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="126">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="123">
         <f>P5</f>
         <v>44662</v>
       </c>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="126">
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="123">
         <f>W5</f>
         <v>44669</v>
       </c>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="126">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="123">
         <f>AD5</f>
         <v>44676</v>
       </c>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="128"/>
-      <c r="AK4" s="126">
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="123">
         <f>AK5</f>
         <v>44683</v>
       </c>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="127"/>
-      <c r="AQ4" s="128"/>
-      <c r="AR4" s="126">
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="123">
         <f>AR5</f>
         <v>44690</v>
       </c>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
-      <c r="AX4" s="128"/>
-      <c r="AY4" s="126">
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="125"/>
+      <c r="AY4" s="123">
         <f>AY5</f>
         <v>44697</v>
       </c>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="127"/>
-      <c r="BB4" s="127"/>
-      <c r="BC4" s="127"/>
-      <c r="BD4" s="127"/>
-      <c r="BE4" s="128"/>
-      <c r="BF4" s="126">
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="125"/>
+      <c r="BF4" s="123">
         <f>BF5</f>
         <v>44704</v>
       </c>
-      <c r="BG4" s="127"/>
-      <c r="BH4" s="127"/>
-      <c r="BI4" s="127"/>
-      <c r="BJ4" s="127"/>
-      <c r="BK4" s="127"/>
-      <c r="BL4" s="128"/>
-      <c r="BM4" s="126">
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="125"/>
+      <c r="BM4" s="123">
         <f>BM5</f>
         <v>44711</v>
       </c>
-      <c r="BN4" s="127"/>
-      <c r="BO4" s="127"/>
-      <c r="BP4" s="127"/>
-      <c r="BQ4" s="127"/>
-      <c r="BR4" s="127"/>
-      <c r="BS4" s="128"/>
-      <c r="BT4" s="126">
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="124"/>
+      <c r="BP4" s="124"/>
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="124"/>
+      <c r="BS4" s="125"/>
+      <c r="BT4" s="123">
         <f>BT5</f>
         <v>44718</v>
       </c>
-      <c r="BU4" s="127"/>
-      <c r="BV4" s="127"/>
-      <c r="BW4" s="127"/>
-      <c r="BX4" s="127"/>
-      <c r="BY4" s="127"/>
-      <c r="BZ4" s="128"/>
-      <c r="CA4" s="126">
+      <c r="BU4" s="124"/>
+      <c r="BV4" s="124"/>
+      <c r="BW4" s="124"/>
+      <c r="BX4" s="124"/>
+      <c r="BY4" s="124"/>
+      <c r="BZ4" s="125"/>
+      <c r="CA4" s="123">
         <f>CA5</f>
         <v>44725</v>
       </c>
-      <c r="CB4" s="127"/>
-      <c r="CC4" s="127"/>
-      <c r="CD4" s="127"/>
-      <c r="CE4" s="127"/>
-      <c r="CF4" s="127"/>
-      <c r="CG4" s="128"/>
-      <c r="CH4" s="126">
+      <c r="CB4" s="124"/>
+      <c r="CC4" s="124"/>
+      <c r="CD4" s="124"/>
+      <c r="CE4" s="124"/>
+      <c r="CF4" s="124"/>
+      <c r="CG4" s="125"/>
+      <c r="CH4" s="123">
         <f>CH5</f>
         <v>44732</v>
       </c>
-      <c r="CI4" s="127"/>
-      <c r="CJ4" s="127"/>
-      <c r="CK4" s="127"/>
-      <c r="CL4" s="127"/>
-      <c r="CM4" s="127"/>
-      <c r="CN4" s="128"/>
-      <c r="CO4" s="126">
+      <c r="CI4" s="124"/>
+      <c r="CJ4" s="124"/>
+      <c r="CK4" s="124"/>
+      <c r="CL4" s="124"/>
+      <c r="CM4" s="124"/>
+      <c r="CN4" s="125"/>
+      <c r="CO4" s="123">
         <f>CO5</f>
         <v>44739</v>
       </c>
-      <c r="CP4" s="127"/>
-      <c r="CQ4" s="127"/>
-      <c r="CR4" s="127"/>
-      <c r="CS4" s="127"/>
-      <c r="CT4" s="127"/>
-      <c r="CU4" s="128"/>
-      <c r="CV4" s="126">
+      <c r="CP4" s="124"/>
+      <c r="CQ4" s="124"/>
+      <c r="CR4" s="124"/>
+      <c r="CS4" s="124"/>
+      <c r="CT4" s="124"/>
+      <c r="CU4" s="125"/>
+      <c r="CV4" s="123">
         <f>CV5</f>
         <v>44746</v>
       </c>
-      <c r="CW4" s="127"/>
-      <c r="CX4" s="127"/>
-      <c r="CY4" s="127"/>
-      <c r="CZ4" s="127"/>
-      <c r="DA4" s="127"/>
-      <c r="DB4" s="128"/>
-      <c r="DC4" s="126">
+      <c r="CW4" s="124"/>
+      <c r="CX4" s="124"/>
+      <c r="CY4" s="124"/>
+      <c r="CZ4" s="124"/>
+      <c r="DA4" s="124"/>
+      <c r="DB4" s="125"/>
+      <c r="DC4" s="123">
         <f>DC5</f>
         <v>44753</v>
       </c>
-      <c r="DD4" s="127"/>
-      <c r="DE4" s="127"/>
-      <c r="DF4" s="127"/>
-      <c r="DG4" s="127"/>
-      <c r="DH4" s="127"/>
-      <c r="DI4" s="128"/>
-      <c r="DJ4" s="126">
+      <c r="DD4" s="124"/>
+      <c r="DE4" s="124"/>
+      <c r="DF4" s="124"/>
+      <c r="DG4" s="124"/>
+      <c r="DH4" s="124"/>
+      <c r="DI4" s="125"/>
+      <c r="DJ4" s="123">
         <f>DJ5</f>
         <v>44760</v>
       </c>
-      <c r="DK4" s="127"/>
-      <c r="DL4" s="127"/>
-      <c r="DM4" s="127"/>
-      <c r="DN4" s="127"/>
-      <c r="DO4" s="127"/>
-      <c r="DP4" s="128"/>
+      <c r="DK4" s="124"/>
+      <c r="DL4" s="124"/>
+      <c r="DM4" s="124"/>
+      <c r="DN4" s="124"/>
+      <c r="DO4" s="124"/>
+      <c r="DP4" s="125"/>
     </row>
     <row r="5" spans="1:200" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
       <c r="I5" s="80">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44655</v>
@@ -13991,7 +13991,9 @@
       <c r="C27" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="89"/>
+      <c r="D27" s="89">
+        <v>1</v>
+      </c>
       <c r="E27" s="90">
         <v>44695</v>
       </c>
@@ -14640,7 +14642,9 @@
       <c r="C30" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="89"/>
+      <c r="D30" s="89">
+        <v>1</v>
+      </c>
       <c r="E30" s="90">
         <v>44700</v>
       </c>
@@ -14855,7 +14859,9 @@
       <c r="C31" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="89"/>
+      <c r="D31" s="89">
+        <v>1</v>
+      </c>
       <c r="E31" s="90">
         <v>44702</v>
       </c>
@@ -15070,7 +15076,9 @@
       <c r="C32" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="89"/>
+      <c r="D32" s="89">
+        <v>1</v>
+      </c>
       <c r="E32" s="90">
         <v>44704</v>
       </c>
@@ -15285,7 +15293,9 @@
       <c r="C33" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="89"/>
+      <c r="D33" s="89">
+        <v>1</v>
+      </c>
       <c r="E33" s="90">
         <v>44705</v>
       </c>
@@ -15500,7 +15510,9 @@
       <c r="C34" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="89"/>
+      <c r="D34" s="89">
+        <v>1</v>
+      </c>
       <c r="E34" s="90">
         <v>44708</v>
       </c>
@@ -15715,7 +15727,9 @@
       <c r="C35" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="89"/>
+      <c r="D35" s="89">
+        <v>1</v>
+      </c>
       <c r="E35" s="90">
         <v>44708</v>
       </c>
@@ -15930,7 +15944,9 @@
       <c r="C36" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="89"/>
+      <c r="D36" s="89">
+        <v>1</v>
+      </c>
       <c r="E36" s="90">
         <v>44711</v>
       </c>
@@ -16145,7 +16161,9 @@
       <c r="C37" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="89"/>
+      <c r="D37" s="89">
+        <v>0.5</v>
+      </c>
       <c r="E37" s="90">
         <v>44717</v>
       </c>
@@ -35838,6 +35856,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="DJ4:DP4"/>
@@ -35846,18 +35876,6 @@
     <mergeCell ref="CA4:CG4"/>
     <mergeCell ref="CH4:CN4"/>
     <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D177">
     <cfRule type="dataBar" priority="443">
